--- a/Final/HUHF-IOT-TEST_005-CSV_POST_PROC/HUHF-IOT-TEST_005-CSV_COND7/cond7_loc6_processed.xlsx
+++ b/Final/HUHF-IOT-TEST_005-CSV_POST_PROC/HUHF-IOT-TEST_005-CSV_COND7/cond7_loc6_processed.xlsx
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.08206825961538455</v>
+        <v>82.06825961538455</v>
       </c>
     </row>
   </sheetData>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.01892744479495268</v>
+        <v>1.892744479495268</v>
       </c>
     </row>
   </sheetData>
